--- a/biology/Médecine/1641_en_santé_et_médecine/1641_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1641_en_santé_et_médecine/1641_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1641_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1641_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1641 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1641_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1641_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>France
-Jean Riolan, médecin anatomiste, est opéré de la maladie de la pierre. Il décèdera à l'âge de 77 ans, le 16 janvier 1657, de rétention d'urines[1].</t>
+Jean Riolan, médecin anatomiste, est opéré de la maladie de la pierre. Il décèdera à l'âge de 77 ans, le 16 janvier 1657, de rétention d'urines.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1641_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1641_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Johann Vesling (1598-1649) : Syntagma anatomicum, manuel anatomique le plus abouti de la seconde moitié du XVIIe siècle, avec seize éditions en latin, allemand, néerlandais et anglais[2],[3],[4].
-Nicolaes Tulp (1593-1674) : Observationes Medicae (en)[4],[5],[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Johann Vesling (1598-1649) : Syntagma anatomicum, manuel anatomique le plus abouti de la seconde moitié du XVIIe siècle, avec seize éditions en latin, allemand, néerlandais et anglais.
+Nicolaes Tulp (1593-1674) : Observationes Medicae (en).</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1641_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1641_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15 avril : Robert Sibbald (mort en 1722), médecin, naturaliste et géographe écossais[7].
-30 juillet : Reinier de Graaf (mort en 1673), médecin et anatomiste néerlandais[8].
-26 septembre : Nehemiah Grew (mort en 1712), médecin et botaniste anglais. Il est l'un des premiers à avoir étudié l’anatomie des végétaux[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15 avril : Robert Sibbald (mort en 1722), médecin, naturaliste et géographe écossais.
+30 juillet : Reinier de Graaf (mort en 1673), médecin et anatomiste néerlandais.
+26 septembre : Nehemiah Grew (mort en 1712), médecin et botaniste anglais. Il est l'un des premiers à avoir étudié l’anatomie des végétaux.
 Date indéterminée
 Raymond Vieussens (mort en 1715), médecin et anatomiste français.</t>
         </is>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1641_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1641_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Date indéterminée
 Guy de La Brosse (né c. 1586), botaniste et médecin français.</t>
